--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pdgfd</t>
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.02973866666667</v>
+        <v>20.35014666666666</v>
       </c>
       <c r="H2">
-        <v>36.089216</v>
+        <v>61.05043999999999</v>
       </c>
       <c r="I2">
-        <v>0.7220792893897158</v>
+        <v>0.7972172161636617</v>
       </c>
       <c r="J2">
-        <v>0.7220792893897157</v>
+        <v>0.7972172161636618</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N2">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q2">
-        <v>52.80200361238755</v>
+        <v>77.84002325513332</v>
       </c>
       <c r="R2">
-        <v>475.2180325114879</v>
+        <v>700.5602092961999</v>
       </c>
       <c r="S2">
-        <v>0.02885316494735729</v>
+        <v>0.02480591479092156</v>
       </c>
       <c r="T2">
-        <v>0.02885316494735729</v>
+        <v>0.02480591479092157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.02973866666667</v>
+        <v>20.35014666666666</v>
       </c>
       <c r="H3">
-        <v>36.089216</v>
+        <v>61.05043999999999</v>
       </c>
       <c r="I3">
-        <v>0.7220792893897158</v>
+        <v>0.7972172161636617</v>
       </c>
       <c r="J3">
-        <v>0.7220792893897157</v>
+        <v>0.7972172161636618</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.692871</v>
       </c>
       <c r="O3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q3">
-        <v>696.4932821310151</v>
+        <v>1178.225133268138</v>
       </c>
       <c r="R3">
-        <v>6268.439539179136</v>
+        <v>10604.02619941324</v>
       </c>
       <c r="S3">
-        <v>0.3805922915648192</v>
+        <v>0.3754746085387917</v>
       </c>
       <c r="T3">
-        <v>0.3805922915648191</v>
+        <v>0.3754746085387918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.02973866666667</v>
+        <v>20.35014666666666</v>
       </c>
       <c r="H4">
-        <v>36.089216</v>
+        <v>61.05043999999999</v>
       </c>
       <c r="I4">
-        <v>0.7220792893897158</v>
+        <v>0.7972172161636617</v>
       </c>
       <c r="J4">
-        <v>0.7220792893897157</v>
+        <v>0.7972172161636618</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N4">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q4">
-        <v>570.5723976388836</v>
+        <v>1243.417194417444</v>
       </c>
       <c r="R4">
-        <v>5135.151578749952</v>
+        <v>11190.754749757</v>
       </c>
       <c r="S4">
-        <v>0.3117839925987506</v>
+        <v>0.3962498941346578</v>
       </c>
       <c r="T4">
-        <v>0.3117839925987505</v>
+        <v>0.3962498941346578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.02973866666667</v>
+        <v>20.35014666666666</v>
       </c>
       <c r="H5">
-        <v>36.089216</v>
+        <v>61.05043999999999</v>
       </c>
       <c r="I5">
-        <v>0.7220792893897158</v>
+        <v>0.7972172161636617</v>
       </c>
       <c r="J5">
-        <v>0.7220792893897157</v>
+        <v>0.7972172161636618</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N5">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q5">
-        <v>1.555228674304</v>
+        <v>2.155148365822222</v>
       </c>
       <c r="R5">
-        <v>13.997058068736</v>
+        <v>19.3963352924</v>
       </c>
       <c r="S5">
-        <v>0.0008498402787886951</v>
+        <v>0.0006867986992906549</v>
       </c>
       <c r="T5">
-        <v>0.0008498402787886951</v>
+        <v>0.000686798699290655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.304557999999999</v>
+        <v>4.304558</v>
       </c>
       <c r="H6">
         <v>12.913674</v>
       </c>
       <c r="I6">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="J6">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N6">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q6">
-        <v>18.89395051411466</v>
+        <v>16.46508500953</v>
       </c>
       <c r="R6">
-        <v>170.045554627032</v>
+        <v>148.18576508577</v>
       </c>
       <c r="S6">
-        <v>0.01032442394975826</v>
+        <v>0.005247062869354247</v>
       </c>
       <c r="T6">
-        <v>0.01032442394975826</v>
+        <v>0.005247062869354247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.304557999999999</v>
+        <v>4.304558</v>
       </c>
       <c r="H7">
         <v>12.913674</v>
       </c>
       <c r="I7">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="J7">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>173.692871</v>
       </c>
       <c r="O7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q7">
-        <v>249.2236791353393</v>
+        <v>249.2236791353394</v>
       </c>
       <c r="R7">
         <v>2243.013112218054</v>
       </c>
       <c r="S7">
-        <v>0.1361859670263001</v>
+        <v>0.07942214159222395</v>
       </c>
       <c r="T7">
-        <v>0.1361859670263001</v>
+        <v>0.07942214159222395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.304557999999999</v>
+        <v>4.304558</v>
       </c>
       <c r="H8">
         <v>12.913674</v>
       </c>
       <c r="I8">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="J8">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N8">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q8">
-        <v>204.1658631904586</v>
+        <v>263.0134081703833</v>
       </c>
       <c r="R8">
-        <v>1837.492768714128</v>
+        <v>2367.12067353345</v>
       </c>
       <c r="S8">
-        <v>0.1115645415749313</v>
+        <v>0.08381662696271285</v>
       </c>
       <c r="T8">
-        <v>0.1115645415749313</v>
+        <v>0.08381662696271285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.304557999999999</v>
+        <v>4.304558</v>
       </c>
       <c r="H9">
         <v>12.913674</v>
       </c>
       <c r="I9">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="J9">
-        <v>0.2583790278328697</v>
+        <v>0.1686311062905535</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N9">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q9">
-        <v>0.5565018673559999</v>
+        <v>0.4558670407266667</v>
       </c>
       <c r="R9">
-        <v>5.008516806204</v>
+        <v>4.10280336654</v>
       </c>
       <c r="S9">
-        <v>0.0003040952818799478</v>
+        <v>0.0001452748662624471</v>
       </c>
       <c r="T9">
-        <v>0.0003040952818799478</v>
+        <v>0.0001452748662624471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3255616666666667</v>
+        <v>0.8288763333333332</v>
       </c>
       <c r="H10">
-        <v>0.976685</v>
+        <v>2.486629</v>
       </c>
       <c r="I10">
-        <v>0.01954168277741458</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="J10">
-        <v>0.01954168277741457</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N10">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q10">
-        <v>1.428984350842222</v>
+        <v>3.170480985671666</v>
       </c>
       <c r="R10">
-        <v>12.86085915758</v>
+        <v>28.53432887104499</v>
       </c>
       <c r="S10">
-        <v>0.0007808552395987118</v>
+        <v>0.001010363022619239</v>
       </c>
       <c r="T10">
-        <v>0.0007808552395987114</v>
+        <v>0.001010363022619239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3255616666666667</v>
+        <v>0.8288763333333332</v>
       </c>
       <c r="H11">
-        <v>0.976685</v>
+        <v>2.486629</v>
       </c>
       <c r="I11">
-        <v>0.01954168277741458</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="J11">
-        <v>0.01954168277741457</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.692871</v>
       </c>
       <c r="O11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q11">
-        <v>18.84924685695945</v>
+        <v>47.98997001353988</v>
       </c>
       <c r="R11">
-        <v>169.643221712635</v>
+        <v>431.909730121859</v>
       </c>
       <c r="S11">
-        <v>0.01029999605109142</v>
+        <v>0.01529335497592166</v>
       </c>
       <c r="T11">
-        <v>0.01029999605109142</v>
+        <v>0.01529335497592166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3255616666666667</v>
+        <v>0.8288763333333332</v>
       </c>
       <c r="H12">
-        <v>0.976685</v>
+        <v>2.486629</v>
       </c>
       <c r="I12">
-        <v>0.01954168277741458</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="J12">
-        <v>0.01954168277741457</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N12">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q12">
-        <v>15.44144107170222</v>
+        <v>50.64529026714722</v>
       </c>
       <c r="R12">
-        <v>138.97296964532</v>
+        <v>455.807612404325</v>
       </c>
       <c r="S12">
-        <v>0.008437832199272789</v>
+        <v>0.01613954752827612</v>
       </c>
       <c r="T12">
-        <v>0.008437832199272787</v>
+        <v>0.01613954752827612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3255616666666667</v>
+        <v>0.8288763333333332</v>
       </c>
       <c r="H13">
-        <v>0.976685</v>
+        <v>2.486629</v>
       </c>
       <c r="I13">
-        <v>0.01954168277741458</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="J13">
-        <v>0.01954168277741457</v>
+        <v>0.03247123933933695</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N13">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q13">
-        <v>0.04208926339000001</v>
+        <v>0.0877807666211111</v>
       </c>
       <c r="R13">
-        <v>0.37880337051</v>
+        <v>0.7900268995899999</v>
       </c>
       <c r="S13">
-        <v>2.299928745165139E-05</v>
+        <v>2.797381251991668E-05</v>
       </c>
       <c r="T13">
-        <v>2.299928745165139E-05</v>
+        <v>2.797381251991668E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.128687</v>
+      </c>
+      <c r="I14">
+        <v>0.001680438206447867</v>
+      </c>
+      <c r="J14">
+        <v>0.001680438206447868</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.825035</v>
+      </c>
+      <c r="N14">
+        <v>11.475105</v>
+      </c>
+      <c r="O14">
+        <v>0.03111562857396839</v>
+      </c>
+      <c r="P14">
+        <v>0.03111562857396839</v>
+      </c>
+      <c r="Q14">
+        <v>0.1640774263483333</v>
+      </c>
+      <c r="R14">
+        <v>1.476696837135</v>
+      </c>
+      <c r="S14">
+        <v>5.228789107333745E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.228789107333746E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.128687</v>
+      </c>
+      <c r="I15">
+        <v>0.001680438206447867</v>
+      </c>
+      <c r="J15">
+        <v>0.001680438206447868</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>57.89762366666667</v>
+      </c>
+      <c r="N15">
+        <v>173.692871</v>
+      </c>
+      <c r="O15">
+        <v>0.4709815605157605</v>
+      </c>
+      <c r="P15">
+        <v>0.4709815605157605</v>
+      </c>
+      <c r="Q15">
+        <v>2.483557165597444</v>
+      </c>
+      <c r="R15">
+        <v>22.352014490377</v>
+      </c>
+      <c r="S15">
+        <v>0.0007914554088231222</v>
+      </c>
+      <c r="T15">
+        <v>0.0007914554088231223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.128687</v>
+      </c>
+      <c r="I16">
+        <v>0.001680438206447867</v>
+      </c>
+      <c r="J16">
+        <v>0.001680438206447868</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>61.10114166666667</v>
+      </c>
+      <c r="N16">
+        <v>183.303425</v>
+      </c>
+      <c r="O16">
+        <v>0.4970413158429724</v>
+      </c>
+      <c r="P16">
+        <v>0.4970413158429724</v>
+      </c>
+      <c r="Q16">
+        <v>2.620974205886111</v>
+      </c>
+      <c r="R16">
+        <v>23.588767852975</v>
+      </c>
+      <c r="S16">
+        <v>0.0008352472173256525</v>
+      </c>
+      <c r="T16">
+        <v>0.0008352472173256526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.128687</v>
+      </c>
+      <c r="I17">
+        <v>0.001680438206447867</v>
+      </c>
+      <c r="J17">
+        <v>0.001680438206447868</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1059033333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.31771</v>
+      </c>
+      <c r="O17">
+        <v>0.0008614950672987739</v>
+      </c>
+      <c r="P17">
+        <v>0.0008614950672987739</v>
+      </c>
+      <c r="Q17">
+        <v>0.004542794085555556</v>
+      </c>
+      <c r="R17">
+        <v>0.04088514677</v>
+      </c>
+      <c r="S17">
+        <v>1.447689225755236E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.447689225755237E-06</v>
       </c>
     </row>
   </sheetData>
